--- a/store/generated_property_values.xlsx
+++ b/store/generated_property_values.xlsx
@@ -46,6 +46,28 @@
     <sheet name="工艺路线所属供应商" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="维护周期" sheetId="38" state="visible" r:id="rId38"/>
     <sheet name="教学方法" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="文档归档人员" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="总学时" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="相关链接" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="路段状态" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="话题参与人员" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="链接所有者电子邮件" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="话题参与条件" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="零部件分类" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="高中学制" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="收入类型" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="所属工作面" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="报告名称" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="天气情况" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="上传人员" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="配方类型" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="招聘职位" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="收藏者" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="权限名称" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="门店评分" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="应用程序名称" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="防火风险" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="证书类型" sheetId="61" state="visible" r:id="rId61"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3700,6 +3722,875 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>文档归档人员</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>李华</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>王明</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>张丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赵云</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>刘强</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>杨洋</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>郭琳</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>戴鑫</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>姜涛</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>刘晶</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>总学时</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>相关链接</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>未提供示例值。</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>路段状态</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>拥堵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>施工</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>封闭</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>平稳</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>疏通</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>改道</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>警示</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>维修</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>巡逻</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>话题参与人员</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>小红</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>刘七</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>朱八</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>郑九</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>刘芳</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>链接所有者电子邮件</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>example1@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>example2@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>example3@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>example4@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>example5@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>example6@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>example7@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>example8@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>example9@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>example10@example.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>话题参与条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>年满18岁</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>具备相关知识或技能</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>注册参与者</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>遵守相关规定和条例</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>无违法犯罪记录</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>符合身体健康要求</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>零部件分类</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>机械类零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>电子类零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>液压类零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>空气类零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>传动类零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>控制类零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>整流器类零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>过滤器类零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>附件类零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>连接器类零部件</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>高中学制</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3年制</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4年制</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5年制</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6年制</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>7年制</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>8年制</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>9年制</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10年制</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11年制</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12年制</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>收入类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>工资</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>股息</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>租金</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>零花钱</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>奖金</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>养老金</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>社保补贴</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>投资收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>福利津贴</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>兼职收入</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3796,6 +4687,966 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>所属工作面</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A面</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B面</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C面</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D面</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E面</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F面</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G面</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H面</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I面</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J面</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>报告名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>销售报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>月度财务报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>市场调研报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>产品分析报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>客户满意度调查报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>员工绩效评估报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>项目进展报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>竞争对手分析报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>市场趋势预测报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>营销策略推广报告</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>天气情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>晴天</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>阴天</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>多云</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>雨天</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>雪天</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>暴风雨</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雾霾</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>冰雹</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>台风</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>干燥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>上传人员</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>小红</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>刘七</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>朱八</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>郑九</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>刘芳</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>配方类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>面食</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>糕点</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>汤类</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>肉类</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>炒菜</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>凉菜</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>饮料</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>主食</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>小吃</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>甜品</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>招聘职位</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>销售经理</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>软件工程师</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>市场营销专员</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>人力资源经理</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>客服代表</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>数据分析师</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>运营专员</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>行政助理</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>财务主管</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>网络安全工程师</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>收藏者</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>李华</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>刘七</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>小红</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>郑九</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>杨八</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>刘芳</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>权限名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>编辑</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>导出</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>导入</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>打印</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>下载</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>上传</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>共享</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>门店评分</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>应用程序名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>QQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>腾讯视频</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>爱奇艺</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>抖音</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>快手</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>美团外卖</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>网易云音乐</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3892,6 +5743,198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>防火风险</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>电器故障</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>烟雾</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>易燃物质</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>火种</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>电线老化</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>不合格电器设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>高温干燥环境</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>人员操作失误</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>隐蔽火灾隐患点未发现</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>缺乏有效的防火设施</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>证书类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>驾驶证</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>学位证</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>毕业证</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>职业资格证书</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>英语水平考试证书</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>计算机等级考试证书</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>健身教练资格证书</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>烹饪技能培训证书</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>心理咨询师资格证书</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>计量工程师职业资格证书</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
